--- a/OFICINAS NOMENCLATURAS.xlsx
+++ b/OFICINAS NOMENCLATURAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://corpgeb-my.sharepoint.com/personal/emosornio_geb_mx/Documents/Escritorio/PAGINA DE CLAVES/NUEVO SCRIPT DE CLAVES/GENERADOR DE CLAVES ACTIVO/GENERADOR CON BUSCADOR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_AD4D2F04E46CFB4ACB3E20702513F954683EDF2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DDBDEE4-D798-4CE0-A492-4B5B683E01EF}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_AD4D2F04E46CFB4ACB3E20702513F954683EDF2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F664B2C-196A-4563-89B2-271E9BB54B47}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="825" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7610,7 +7610,7 @@
   <dimension ref="A1:D1106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
